--- a/src/assets/excel/radarData.xlsx
+++ b/src/assets/excel/radarData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esang\Documents\work\devel\scboard24\scboard24\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8993A7-9C96-4635-8EB8-2CEF288AC9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A558373-7768-47CA-866C-08A8179C9742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13245" yWindow="240" windowWidth="25980" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7905" yWindow="2025" windowWidth="25980" windowHeight="18225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="5" r:id="rId1"/>
@@ -516,10 +516,10 @@
     <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -839,7 +839,7 @@
   <dimension ref="A1:T105"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -866,10 +866,10 @@
       <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="16"/>
+      <c r="K1" s="17"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -949,7 +949,7 @@
       </c>
       <c r="F3" s="5"/>
       <c r="H3" s="9">
-        <v>11.4</v>
+        <v>9.9</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>10</v>
@@ -967,12 +967,15 @@
         <v>48.8</v>
       </c>
       <c r="N3" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="O3" s="1">
         <f>($H$3/25)*100</f>
-        <v>45.6</v>
+        <v>39.6</v>
       </c>
       <c r="T3" s="3">
         <f>AVERAGE(J3:S3)</f>
-        <v>47.28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -997,7 +1000,7 @@
       </c>
       <c r="F4" s="5"/>
       <c r="H4" s="9">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
@@ -1015,12 +1018,15 @@
         <v>36.799999999999997</v>
       </c>
       <c r="N4" s="1">
+        <v>53.6</v>
+      </c>
+      <c r="O4" s="1">
         <f>($H$4/12.5)*100</f>
-        <v>53.6</v>
+        <v>58.4</v>
       </c>
       <c r="T4" s="3">
         <f>AVERAGE(J4:S4)</f>
-        <v>39.68</v>
+        <v>42.800000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -1045,7 +1051,7 @@
       </c>
       <c r="F5" s="5"/>
       <c r="H5" s="9">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>12</v>
@@ -1063,12 +1069,15 @@
         <v>62.4</v>
       </c>
       <c r="N5" s="1">
+        <v>38.4</v>
+      </c>
+      <c r="O5" s="1">
         <f>($H$5/12.5)*100</f>
-        <v>38.4</v>
+        <v>47.2</v>
       </c>
       <c r="T5" s="3">
         <f>AVERAGE(J5:S5)</f>
-        <v>50.720000000000006</v>
+        <v>50.133333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -1093,7 +1102,7 @@
       </c>
       <c r="F6" s="5"/>
       <c r="H6" s="9">
-        <v>32.6</v>
+        <v>31.7</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>13</v>
@@ -1111,12 +1120,15 @@
         <v>63.2</v>
       </c>
       <c r="N6" s="1">
+        <v>65.2</v>
+      </c>
+      <c r="O6" s="1">
         <f>($H$6/50)*100</f>
-        <v>65.2</v>
+        <v>63.4</v>
       </c>
       <c r="T6" s="3">
         <f>AVERAGE(J6:S6)</f>
-        <v>57.319999999999993</v>
+        <v>58.333333333333321</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -1193,7 +1205,7 @@
       </c>
       <c r="P9" s="1">
         <f>($H$3/25)*100</f>
-        <v>45.6</v>
+        <v>39.6</v>
       </c>
       <c r="T9" s="3"/>
     </row>
@@ -1221,7 +1233,7 @@
       <c r="I10"/>
       <c r="P10" s="1">
         <f>($H$4/12.5)*100</f>
-        <v>53.6</v>
+        <v>58.4</v>
       </c>
       <c r="T10" s="3"/>
     </row>
@@ -1249,7 +1261,7 @@
       <c r="I11"/>
       <c r="P11" s="1">
         <f>($H$5/12.5)*100</f>
-        <v>38.4</v>
+        <v>47.2</v>
       </c>
       <c r="T11" s="1"/>
     </row>
@@ -1277,7 +1289,7 @@
       <c r="I12"/>
       <c r="P12" s="1">
         <f>($H$6/50)*100</f>
-        <v>65.2</v>
+        <v>63.4</v>
       </c>
       <c r="T12" s="1"/>
     </row>
@@ -3418,7 +3430,7 @@
       <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>10</v>
       </c>
       <c r="N3" s="4">
@@ -3462,7 +3474,7 @@
       <c r="E4" s="1">
         <v>7.5</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="16"/>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3511,7 +3523,7 @@
       <c r="F5" s="12">
         <v>7.5</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>10</v>
       </c>
       <c r="N5" s="4">
@@ -3559,7 +3571,7 @@
       <c r="F6" s="12">
         <v>12.5</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>0</v>
       </c>
       <c r="N6" s="4">
@@ -3598,7 +3610,7 @@
       <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="16"/>
       <c r="N7" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3641,7 +3653,7 @@
       <c r="F8" s="12">
         <v>5</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>10</v>
       </c>
       <c r="N8" s="4">
@@ -3689,7 +3701,7 @@
       <c r="F9" s="12">
         <v>2.5</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>7.5</v>
       </c>
       <c r="N9" s="4">
@@ -3737,7 +3749,7 @@
       <c r="F10" s="12">
         <v>7.5</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>7.5</v>
       </c>
       <c r="N10" s="4">
@@ -3782,7 +3794,7 @@
       <c r="F11" s="12">
         <v>7.5</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="16"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
@@ -3824,7 +3836,7 @@
       <c r="F12" s="12">
         <v>7.5</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>10</v>
       </c>
       <c r="N12" s="4">
@@ -3874,7 +3886,7 @@
       <c r="F13" s="12">
         <v>7.5</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>12.5</v>
       </c>
       <c r="N13" s="4">
@@ -3921,7 +3933,7 @@
       <c r="F14" s="12">
         <v>7.5</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <v>12.5</v>
       </c>
       <c r="N14" s="4">
@@ -3971,7 +3983,7 @@
       <c r="F15" s="12">
         <v>10</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <v>7.5</v>
       </c>
       <c r="N15" s="4">
@@ -4018,7 +4030,7 @@
       <c r="F16" s="12">
         <v>10</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <v>2.5</v>
       </c>
       <c r="N16" s="4">
@@ -4068,7 +4080,7 @@
       <c r="F17" s="12">
         <v>2.5</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="16">
         <v>2.5</v>
       </c>
       <c r="N17" s="4">
@@ -4115,7 +4127,7 @@
       <c r="F18" s="12">
         <v>10</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <v>2.5</v>
       </c>
       <c r="N18" s="4">
@@ -4159,7 +4171,7 @@
       <c r="F19" s="12">
         <v>20</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <v>7.5</v>
       </c>
       <c r="N19" s="4">
@@ -4203,7 +4215,7 @@
       <c r="F20" s="12">
         <v>10</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="16">
         <v>2.5</v>
       </c>
       <c r="N20" s="4">
@@ -4250,7 +4262,7 @@
       <c r="F21" s="12">
         <v>7.5</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="16">
         <v>7.5</v>
       </c>
       <c r="N21" s="4">
@@ -4294,7 +4306,7 @@
       <c r="F22" s="12">
         <v>12.5</v>
       </c>
-      <c r="G22" s="17"/>
+      <c r="G22" s="16"/>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
         <v>36.666666666666664</v>
@@ -4339,7 +4351,7 @@
       <c r="F23" s="12">
         <v>10</v>
       </c>
-      <c r="G23" s="17"/>
+      <c r="G23" s="16"/>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4387,7 +4399,7 @@
       <c r="F24" s="12">
         <v>7.5</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="16">
         <v>0</v>
       </c>
       <c r="N24" s="4">
@@ -4428,7 +4440,7 @@
       <c r="E25" s="1">
         <v>22.5</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="16">
         <v>10</v>
       </c>
       <c r="N25" s="4">
@@ -4478,7 +4490,7 @@
       <c r="F26" s="12">
         <v>17.5</v>
       </c>
-      <c r="G26" s="17"/>
+      <c r="G26" s="16"/>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -4523,7 +4535,7 @@
       <c r="F27" s="12">
         <v>10</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="16">
         <v>7.5</v>
       </c>
       <c r="N27" s="4">
@@ -4570,7 +4582,7 @@
       <c r="F28" s="12">
         <v>10</v>
       </c>
-      <c r="G28" s="17"/>
+      <c r="G28" s="16"/>
       <c r="N28" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4615,7 +4627,7 @@
       <c r="F29" s="12">
         <v>10</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="16">
         <v>5</v>
       </c>
       <c r="N29" s="4">
@@ -4656,7 +4668,7 @@
       <c r="F30" s="12">
         <v>7.5</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="16">
         <v>5</v>
       </c>
       <c r="N30" s="4">
@@ -4697,7 +4709,7 @@
       <c r="E31" s="1">
         <v>12.5</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="16">
         <v>5</v>
       </c>
       <c r="N31" s="4">
@@ -4735,7 +4747,7 @@
       <c r="D32" s="1">
         <v>7.5</v>
       </c>
-      <c r="G32" s="17"/>
+      <c r="G32" s="16"/>
       <c r="N32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4771,7 +4783,7 @@
       <c r="F33" s="12">
         <v>12.5</v>
       </c>
-      <c r="G33" s="17"/>
+      <c r="G33" s="16"/>
       <c r="N33" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4801,7 +4813,7 @@
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="17"/>
+      <c r="G34" s="16"/>
       <c r="N34" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4843,7 +4855,7 @@
       <c r="F35" s="12">
         <v>5</v>
       </c>
-      <c r="G35" s="17"/>
+      <c r="G35" s="16"/>
       <c r="N35" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4882,7 +4894,7 @@
       <c r="D36" s="1">
         <v>2.5</v>
       </c>
-      <c r="G36" s="17"/>
+      <c r="G36" s="16"/>
       <c r="N36" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4930,7 +4942,7 @@
       <c r="F37" s="12">
         <v>20</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="16">
         <v>10</v>
       </c>
       <c r="N37" s="4">
@@ -4980,7 +4992,7 @@
       <c r="F38" s="12">
         <v>12.5</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="16">
         <v>0</v>
       </c>
       <c r="N38" s="4">
@@ -5027,7 +5039,7 @@
       <c r="F39" s="12">
         <v>20</v>
       </c>
-      <c r="G39" s="17"/>
+      <c r="G39" s="16"/>
       <c r="N39" s="4">
         <f t="shared" si="0"/>
         <v>77.5</v>
@@ -5075,7 +5087,7 @@
       <c r="F40" s="12">
         <v>5</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="16">
         <v>7.5</v>
       </c>
       <c r="N40" s="4">
@@ -5110,7 +5122,7 @@
       <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="17"/>
+      <c r="G41" s="16"/>
       <c r="N41" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5146,7 +5158,7 @@
       <c r="F42" s="12">
         <v>2.5</v>
       </c>
-      <c r="G42" s="17"/>
+      <c r="G42" s="16"/>
       <c r="N42" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5191,7 +5203,7 @@
       <c r="F43" s="12">
         <v>15</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="16">
         <v>5</v>
       </c>
       <c r="N43" s="4">
@@ -5238,7 +5250,7 @@
       <c r="F44" s="12">
         <v>22.5</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="16">
         <v>15</v>
       </c>
       <c r="N44" s="4">
@@ -5282,7 +5294,7 @@
       <c r="E45" s="1">
         <v>12.5</v>
       </c>
-      <c r="G45" s="17"/>
+      <c r="G45" s="16"/>
       <c r="N45" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5318,7 +5330,7 @@
       <c r="D46" s="1">
         <v>10</v>
       </c>
-      <c r="G46" s="17"/>
+      <c r="G46" s="16"/>
       <c r="N46" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5360,7 +5372,7 @@
       <c r="F47" s="12">
         <v>17.5</v>
       </c>
-      <c r="G47" s="17"/>
+      <c r="G47" s="16"/>
       <c r="N47" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5408,7 +5420,7 @@
       <c r="F48" s="12">
         <v>12.5</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="16">
         <v>0</v>
       </c>
       <c r="N48" s="4">
@@ -5443,7 +5455,7 @@
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="17"/>
+      <c r="G49" s="16"/>
       <c r="N49" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5488,7 +5500,7 @@
       <c r="F50" s="12">
         <v>17.5</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="16">
         <v>7.5</v>
       </c>
       <c r="N50" s="4">
@@ -5523,7 +5535,7 @@
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G51" s="17"/>
+      <c r="G51" s="16"/>
       <c r="N51" s="4" t="str">
         <f t="shared" ref="N51:N100" si="6">IFERROR(AVERAGEIF(P51:AA51,"&lt;&gt;0"),"")</f>
         <v/>
@@ -5568,7 +5580,7 @@
       <c r="F52" s="12">
         <v>7.5</v>
       </c>
-      <c r="G52" s="17"/>
+      <c r="G52" s="16"/>
       <c r="N52" s="4">
         <f t="shared" si="6"/>
         <v>27.5</v>
@@ -5610,7 +5622,7 @@
       <c r="E53" s="1">
         <v>10</v>
       </c>
-      <c r="G53" s="17"/>
+      <c r="G53" s="16"/>
       <c r="N53" s="4">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -5655,7 +5667,7 @@
       <c r="F54" s="12">
         <v>5</v>
       </c>
-      <c r="G54" s="17"/>
+      <c r="G54" s="16"/>
       <c r="N54" s="4">
         <f t="shared" si="6"/>
         <v>32.5</v>
@@ -5697,7 +5709,7 @@
       <c r="F55" s="12">
         <v>15</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="16">
         <v>5</v>
       </c>
       <c r="N55" s="4">
@@ -5741,7 +5753,7 @@
       <c r="F56" s="12">
         <v>12.5</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="16">
         <v>5</v>
       </c>
       <c r="N56" s="4">
@@ -5779,7 +5791,7 @@
       <c r="D57" s="1">
         <v>2.5</v>
       </c>
-      <c r="G57" s="17"/>
+      <c r="G57" s="16"/>
       <c r="N57" s="4">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -5812,7 +5824,7 @@
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G58" s="17"/>
+      <c r="G58" s="16"/>
       <c r="N58" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5851,7 +5863,7 @@
       <c r="F59" s="12">
         <v>10</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G59" s="16">
         <v>7.5</v>
       </c>
       <c r="N59" s="4">
@@ -5895,7 +5907,7 @@
       <c r="F60" s="12">
         <v>5</v>
       </c>
-      <c r="G60" s="17"/>
+      <c r="G60" s="16"/>
       <c r="N60" s="4">
         <f t="shared" si="6"/>
         <v>26.666666666666668</v>
@@ -5937,7 +5949,7 @@
       <c r="F61" s="12">
         <v>2.5</v>
       </c>
-      <c r="G61" s="17"/>
+      <c r="G61" s="16"/>
       <c r="N61" s="4">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -5985,7 +5997,7 @@
       <c r="F62" s="12">
         <v>12.5</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="16">
         <v>17.5</v>
       </c>
       <c r="N62" s="4">
@@ -6032,7 +6044,7 @@
       <c r="F63" s="12">
         <v>10</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G63" s="16">
         <v>7.5</v>
       </c>
       <c r="N63" s="4">
@@ -6082,7 +6094,7 @@
       <c r="F64" s="12">
         <v>15</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G64" s="16">
         <v>15</v>
       </c>
       <c r="N64" s="4">
@@ -6129,7 +6141,7 @@
       <c r="F65" s="12">
         <v>12.5</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G65" s="16">
         <v>2.5</v>
       </c>
       <c r="N65" s="4">
@@ -6173,7 +6185,7 @@
       <c r="F66" s="12">
         <v>12.5</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G66" s="16">
         <v>7.5</v>
       </c>
       <c r="N66" s="4">
@@ -6217,7 +6229,7 @@
       <c r="F67" s="12">
         <v>10</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G67" s="16">
         <v>12.5</v>
       </c>
       <c r="N67" s="4">
@@ -6261,7 +6273,7 @@
       <c r="F68" s="12">
         <v>15</v>
       </c>
-      <c r="G68" s="17"/>
+      <c r="G68" s="16"/>
       <c r="N68" s="4">
         <f t="shared" si="6"/>
         <v>56.666666666666664</v>
@@ -6306,7 +6318,7 @@
       <c r="E69" s="1">
         <v>15</v>
       </c>
-      <c r="G69" s="17"/>
+      <c r="G69" s="16"/>
       <c r="N69" s="4">
         <f t="shared" si="6"/>
         <v>55</v>
@@ -6354,7 +6366,7 @@
       <c r="F70" s="12">
         <v>12.5</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G70" s="16">
         <v>12.5</v>
       </c>
       <c r="N70" s="4">
@@ -6404,7 +6416,7 @@
       <c r="F71" s="12">
         <v>10</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G71" s="16">
         <v>7.5</v>
       </c>
       <c r="N71" s="4">
@@ -6448,7 +6460,7 @@
       <c r="F72" s="12">
         <v>10</v>
       </c>
-      <c r="G72" s="17"/>
+      <c r="G72" s="16"/>
       <c r="N72" s="4">
         <f t="shared" si="6"/>
         <v>36.666666666666664</v>
@@ -6481,7 +6493,7 @@
       <c r="A73" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G73" s="17"/>
+      <c r="G73" s="16"/>
       <c r="N73" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6517,7 +6529,7 @@
       <c r="F74" s="12">
         <v>7.5</v>
       </c>
-      <c r="G74" s="17"/>
+      <c r="G74" s="16"/>
       <c r="N74" s="4">
         <f t="shared" si="6"/>
         <v>35</v>
@@ -6559,7 +6571,7 @@
       <c r="F75" s="12">
         <v>15</v>
       </c>
-      <c r="G75" s="17"/>
+      <c r="G75" s="16"/>
       <c r="N75" s="4">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -6601,7 +6613,7 @@
       <c r="F76" s="12">
         <v>2.5</v>
       </c>
-      <c r="G76" s="17"/>
+      <c r="G76" s="16"/>
       <c r="N76" s="4">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -6646,7 +6658,7 @@
       <c r="F77" s="12">
         <v>12.5</v>
       </c>
-      <c r="G77" s="17">
+      <c r="G77" s="16">
         <v>10</v>
       </c>
       <c r="N77" s="4">
@@ -6693,7 +6705,7 @@
       <c r="F78" s="12">
         <v>22.5</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G78" s="16">
         <v>0</v>
       </c>
       <c r="N78" s="4">
@@ -6743,7 +6755,7 @@
       <c r="F79" s="12">
         <v>17.5</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G79" s="16">
         <v>12.5</v>
       </c>
       <c r="N79" s="4">
@@ -6793,7 +6805,7 @@
       <c r="F80" s="12">
         <v>2.5</v>
       </c>
-      <c r="G80" s="17"/>
+      <c r="G80" s="16"/>
       <c r="N80" s="4">
         <f t="shared" si="6"/>
         <v>23.333333333333332</v>
@@ -6832,7 +6844,7 @@
       <c r="D81" s="1">
         <v>5</v>
       </c>
-      <c r="G81" s="17"/>
+      <c r="G81" s="16"/>
       <c r="N81" s="4">
         <f t="shared" si="6"/>
         <v>35</v>
@@ -6880,7 +6892,7 @@
       <c r="F82" s="12">
         <v>12.5</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G82" s="16">
         <v>7.5</v>
       </c>
       <c r="N82" s="4">
@@ -6924,7 +6936,7 @@
       <c r="F83" s="12">
         <v>10</v>
       </c>
-      <c r="G83" s="17"/>
+      <c r="G83" s="16"/>
       <c r="N83" s="4">
         <f t="shared" si="6"/>
         <v>23.333333333333332</v>
@@ -6969,7 +6981,7 @@
       <c r="F84" s="12">
         <v>2.5</v>
       </c>
-      <c r="G84" s="17">
+      <c r="G84" s="16">
         <v>5</v>
       </c>
       <c r="N84" s="4">
@@ -7016,7 +7028,7 @@
       <c r="E85" s="1">
         <v>10</v>
       </c>
-      <c r="G85" s="17">
+      <c r="G85" s="16">
         <v>7.5</v>
       </c>
       <c r="N85" s="4">
@@ -7051,7 +7063,7 @@
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G86" s="17"/>
+      <c r="G86" s="16"/>
       <c r="N86" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7090,7 +7102,7 @@
       <c r="F87" s="12">
         <v>10</v>
       </c>
-      <c r="G87" s="17"/>
+      <c r="G87" s="16"/>
       <c r="N87" s="4">
         <f t="shared" si="6"/>
         <v>36.666666666666664</v>
@@ -7135,7 +7147,7 @@
       <c r="F88" s="12">
         <v>7.5</v>
       </c>
-      <c r="G88" s="17">
+      <c r="G88" s="16">
         <v>5</v>
       </c>
       <c r="N88" s="4">
@@ -7170,7 +7182,7 @@
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G89" s="17"/>
+      <c r="G89" s="16"/>
       <c r="N89" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7209,7 +7221,7 @@
       <c r="F90" s="12">
         <v>5</v>
       </c>
-      <c r="G90" s="17"/>
+      <c r="G90" s="16"/>
       <c r="N90" s="4">
         <f t="shared" si="6"/>
         <v>40</v>
@@ -7254,7 +7266,7 @@
       <c r="F91" s="12">
         <v>5</v>
       </c>
-      <c r="G91" s="17"/>
+      <c r="G91" s="16"/>
       <c r="N91" s="4">
         <f t="shared" si="6"/>
         <v>27.5</v>
@@ -7290,7 +7302,7 @@
       <c r="F92" s="12">
         <v>12.5</v>
       </c>
-      <c r="G92" s="17"/>
+      <c r="G92" s="16"/>
       <c r="N92" s="4">
         <f t="shared" si="6"/>
         <v>60</v>
@@ -7335,7 +7347,7 @@
       <c r="E93" s="1">
         <v>15</v>
       </c>
-      <c r="G93" s="17">
+      <c r="G93" s="16">
         <v>12.5</v>
       </c>
       <c r="N93" s="4">
@@ -7370,7 +7382,7 @@
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="17">
+      <c r="G94" s="16">
         <v>25</v>
       </c>
       <c r="N94" s="4">
@@ -7417,7 +7429,7 @@
       <c r="F95" s="12">
         <v>10</v>
       </c>
-      <c r="G95" s="17">
+      <c r="G95" s="16">
         <v>10</v>
       </c>
       <c r="N95" s="4">
@@ -7464,7 +7476,7 @@
       <c r="F96" s="12">
         <v>2.5</v>
       </c>
-      <c r="G96" s="17"/>
+      <c r="G96" s="16"/>
       <c r="N96" s="4">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -7506,7 +7518,7 @@
       <c r="F97" s="12">
         <v>7.5</v>
       </c>
-      <c r="G97" s="17"/>
+      <c r="G97" s="16"/>
       <c r="N97" s="4">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -7548,7 +7560,7 @@
       <c r="F98" s="12">
         <v>7.5</v>
       </c>
-      <c r="G98" s="17">
+      <c r="G98" s="16">
         <v>10</v>
       </c>
       <c r="N98" s="4">
@@ -7598,7 +7610,7 @@
       <c r="F99" s="12">
         <v>12.5</v>
       </c>
-      <c r="G99" s="17">
+      <c r="G99" s="16">
         <v>17.5</v>
       </c>
       <c r="N99" s="4">
@@ -7645,7 +7657,7 @@
       <c r="F100" s="12">
         <v>5</v>
       </c>
-      <c r="G100" s="17">
+      <c r="G100" s="16">
         <v>7.5</v>
       </c>
       <c r="N100" s="4">
@@ -7689,7 +7701,7 @@
       <c r="F101" s="12">
         <v>2.5</v>
       </c>
-      <c r="G101" s="17"/>
+      <c r="G101" s="16"/>
       <c r="N101" s="4">
         <f t="shared" ref="N101:N103" si="12">IFERROR(AVERAGEIF(P101:AA101,"&lt;&gt;0"),"")</f>
         <v>16.666666666666668</v>
@@ -7737,7 +7749,7 @@
       <c r="F102" s="12">
         <v>17.5</v>
       </c>
-      <c r="G102" s="17">
+      <c r="G102" s="16">
         <v>12.5</v>
       </c>
       <c r="N102" s="4">
@@ -7772,7 +7784,7 @@
       <c r="A103" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G103" s="17"/>
+      <c r="G103" s="16"/>
       <c r="N103" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -7960,7 +7972,7 @@
       <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>10</v>
       </c>
       <c r="N3" s="4">
@@ -8004,7 +8016,7 @@
       <c r="E4" s="1">
         <v>2.5</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="16"/>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8053,7 +8065,7 @@
       <c r="F5" s="12">
         <v>10</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>12.5</v>
       </c>
       <c r="N5" s="4">
@@ -8098,7 +8110,7 @@
       <c r="F6" s="12">
         <v>2.5</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>5</v>
       </c>
       <c r="N6" s="4">
@@ -8137,7 +8149,7 @@
       <c r="D7" s="1">
         <v>2.5</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="16"/>
       <c r="N7" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8180,7 +8192,7 @@
       <c r="F8" s="12">
         <v>2.5</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="16"/>
       <c r="N8" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8223,7 +8235,7 @@
       <c r="F9" s="12">
         <v>5</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>12.5</v>
       </c>
       <c r="N9" s="4">
@@ -8265,7 +8277,7 @@
       <c r="F10" s="12">
         <v>2.5</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>5</v>
       </c>
       <c r="N10" s="4">
@@ -8310,7 +8322,7 @@
       <c r="F11" s="12">
         <v>5</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="16"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
@@ -8349,7 +8361,7 @@
       <c r="F12" s="12">
         <v>2.5</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>10</v>
       </c>
       <c r="N12" s="4">
@@ -8399,7 +8411,7 @@
       <c r="F13" s="12">
         <v>10</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>7.5</v>
       </c>
       <c r="N13" s="4">
@@ -8446,7 +8458,7 @@
       <c r="F14" s="12">
         <v>2.5</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <v>7.5</v>
       </c>
       <c r="N14" s="4">
@@ -8493,7 +8505,7 @@
       <c r="F15" s="12">
         <v>2.5</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <v>5</v>
       </c>
       <c r="N15" s="4">
@@ -8534,7 +8546,7 @@
       <c r="F16" s="12">
         <v>2.5</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <v>5</v>
       </c>
       <c r="N16" s="4">
@@ -8581,7 +8593,7 @@
       <c r="F17" s="12">
         <v>7.5</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="16">
         <v>5</v>
       </c>
       <c r="N17" s="4">
@@ -8628,7 +8640,7 @@
       <c r="F18" s="12">
         <v>7.5</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <v>7.5</v>
       </c>
       <c r="N18" s="4">
@@ -8669,7 +8681,7 @@
       <c r="F19" s="12">
         <v>10</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <v>7.5</v>
       </c>
       <c r="N19" s="4">
@@ -8707,7 +8719,7 @@
       <c r="F20" s="12">
         <v>5</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="16">
         <v>10</v>
       </c>
       <c r="N20" s="4">
@@ -8754,7 +8766,7 @@
       <c r="F21" s="12">
         <v>5</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="16">
         <v>7.5</v>
       </c>
       <c r="N21" s="4">
@@ -8798,7 +8810,7 @@
       <c r="F22" s="12">
         <v>7.5</v>
       </c>
-      <c r="G22" s="17"/>
+      <c r="G22" s="16"/>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
@@ -8843,7 +8855,7 @@
       <c r="F23" s="12">
         <v>5</v>
       </c>
-      <c r="G23" s="17"/>
+      <c r="G23" s="16"/>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -8888,7 +8900,7 @@
       <c r="E24" s="1">
         <v>5</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="16">
         <v>7.5</v>
       </c>
       <c r="N24" s="4">
@@ -8929,7 +8941,7 @@
       <c r="E25" s="1">
         <v>7.5</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="16">
         <v>10</v>
       </c>
       <c r="N25" s="4">
@@ -8979,7 +8991,7 @@
       <c r="F26" s="12">
         <v>10</v>
       </c>
-      <c r="G26" s="17"/>
+      <c r="G26" s="16"/>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -9021,7 +9033,7 @@
       <c r="F27" s="12">
         <v>2.5</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="16">
         <v>7.5</v>
       </c>
       <c r="N27" s="4">
@@ -9068,7 +9080,7 @@
       <c r="F28" s="12">
         <v>2.5</v>
       </c>
-      <c r="G28" s="17"/>
+      <c r="G28" s="16"/>
       <c r="N28" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -9113,7 +9125,7 @@
       <c r="F29" s="12">
         <v>10</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="16">
         <v>10</v>
       </c>
       <c r="N29" s="4">
@@ -9151,7 +9163,7 @@
       <c r="F30" s="12">
         <v>5</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="16">
         <v>5</v>
       </c>
       <c r="N30" s="4">
@@ -9189,7 +9201,7 @@
       <c r="E31" s="1">
         <v>2.5</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="16">
         <v>5</v>
       </c>
       <c r="N31" s="4">
@@ -9227,7 +9239,7 @@
       <c r="D32" s="1">
         <v>2.5</v>
       </c>
-      <c r="G32" s="17"/>
+      <c r="G32" s="16"/>
       <c r="N32" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -9263,7 +9275,7 @@
       <c r="F33" s="12">
         <v>5</v>
       </c>
-      <c r="G33" s="17"/>
+      <c r="G33" s="16"/>
       <c r="N33" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -9293,7 +9305,7 @@
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="17"/>
+      <c r="G34" s="16"/>
       <c r="N34" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9332,7 +9344,7 @@
       <c r="F35" s="12">
         <v>2.5</v>
       </c>
-      <c r="G35" s="17"/>
+      <c r="G35" s="16"/>
       <c r="N35" s="4">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
@@ -9371,7 +9383,7 @@
       <c r="D36" s="1">
         <v>5</v>
       </c>
-      <c r="G36" s="17"/>
+      <c r="G36" s="16"/>
       <c r="N36" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -9419,7 +9431,7 @@
       <c r="F37" s="12">
         <v>7.5</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="16">
         <v>7.5</v>
       </c>
       <c r="N37" s="4">
@@ -9469,7 +9481,7 @@
       <c r="F38" s="12">
         <v>5</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="16">
         <v>10</v>
       </c>
       <c r="N38" s="4">
@@ -9516,7 +9528,7 @@
       <c r="F39" s="12">
         <v>2.5</v>
       </c>
-      <c r="G39" s="17"/>
+      <c r="G39" s="16"/>
       <c r="N39" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -9564,7 +9576,7 @@
       <c r="F40" s="12">
         <v>5</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="16">
         <v>2.5</v>
       </c>
       <c r="N40" s="4">
@@ -9599,7 +9611,7 @@
       <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="17"/>
+      <c r="G41" s="16"/>
       <c r="N41" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9635,7 +9647,7 @@
       <c r="F42" s="12">
         <v>7.5</v>
       </c>
-      <c r="G42" s="17"/>
+      <c r="G42" s="16"/>
       <c r="N42" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -9680,7 +9692,7 @@
       <c r="F43" s="12">
         <v>7.5</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="16">
         <v>12.5</v>
       </c>
       <c r="N43" s="4">
@@ -9727,7 +9739,7 @@
       <c r="F44" s="12">
         <v>10</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="16">
         <v>10</v>
       </c>
       <c r="N44" s="4">
@@ -9768,7 +9780,7 @@
       <c r="E45" s="1">
         <v>7.5</v>
       </c>
-      <c r="G45" s="17"/>
+      <c r="G45" s="16"/>
       <c r="N45" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -9804,7 +9816,7 @@
       <c r="D46" s="1">
         <v>2.5</v>
       </c>
-      <c r="G46" s="17"/>
+      <c r="G46" s="16"/>
       <c r="N46" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -9846,7 +9858,7 @@
       <c r="F47" s="12">
         <v>7.5</v>
       </c>
-      <c r="G47" s="17"/>
+      <c r="G47" s="16"/>
       <c r="N47" s="4">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
@@ -9894,7 +9906,7 @@
       <c r="F48" s="12">
         <v>7.5</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="16">
         <v>0</v>
       </c>
       <c r="N48" s="4">
@@ -9929,7 +9941,7 @@
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="17"/>
+      <c r="G49" s="16"/>
       <c r="N49" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9974,7 +9986,7 @@
       <c r="F50" s="12">
         <v>7.5</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="16">
         <v>7.5</v>
       </c>
       <c r="N50" s="4">
@@ -10009,7 +10021,7 @@
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G51" s="17"/>
+      <c r="G51" s="16"/>
       <c r="N51" s="4" t="str">
         <f t="shared" ref="N51:N100" si="6">IFERROR(AVERAGEIF(P51:AA51,"&lt;&gt;0"),"")</f>
         <v/>
@@ -10045,7 +10057,7 @@
       <c r="F52" s="12">
         <v>5</v>
       </c>
-      <c r="G52" s="17"/>
+      <c r="G52" s="16"/>
       <c r="N52" s="4">
         <f t="shared" si="6"/>
         <v>40</v>
@@ -10087,7 +10099,7 @@
       <c r="E53" s="1">
         <v>7.5</v>
       </c>
-      <c r="G53" s="17"/>
+      <c r="G53" s="16"/>
       <c r="N53" s="4">
         <f t="shared" si="6"/>
         <v>33.333333333333336</v>
@@ -10132,7 +10144,7 @@
       <c r="F54" s="12">
         <v>7.5</v>
       </c>
-      <c r="G54" s="17"/>
+      <c r="G54" s="16"/>
       <c r="N54" s="4">
         <f t="shared" si="6"/>
         <v>40</v>
@@ -10174,7 +10186,7 @@
       <c r="F55" s="12">
         <v>5</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="16">
         <v>10</v>
       </c>
       <c r="N55" s="4">
@@ -10218,7 +10230,7 @@
       <c r="F56" s="12">
         <v>5</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="16">
         <v>7.5</v>
       </c>
       <c r="N56" s="4">
@@ -10256,7 +10268,7 @@
       <c r="D57" s="1">
         <v>5</v>
       </c>
-      <c r="G57" s="17"/>
+      <c r="G57" s="16"/>
       <c r="N57" s="4">
         <f t="shared" si="6"/>
         <v>40</v>
@@ -10289,7 +10301,7 @@
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G58" s="17"/>
+      <c r="G58" s="16"/>
       <c r="N58" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -10328,7 +10340,7 @@
       <c r="F59" s="12">
         <v>10</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G59" s="16">
         <v>10</v>
       </c>
       <c r="N59" s="4">
@@ -10372,7 +10384,7 @@
       <c r="F60" s="12">
         <v>10</v>
       </c>
-      <c r="G60" s="17"/>
+      <c r="G60" s="16"/>
       <c r="N60" s="4">
         <f t="shared" si="6"/>
         <v>66.666666666666671</v>
@@ -10414,7 +10426,7 @@
       <c r="F61" s="12">
         <v>5</v>
       </c>
-      <c r="G61" s="17"/>
+      <c r="G61" s="16"/>
       <c r="N61" s="4">
         <f t="shared" si="6"/>
         <v>33.333333333333336</v>
@@ -10462,7 +10474,7 @@
       <c r="F62" s="12">
         <v>10</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="16">
         <v>10</v>
       </c>
       <c r="N62" s="4">
@@ -10509,7 +10521,7 @@
       <c r="F63" s="12">
         <v>2.5</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G63" s="16">
         <v>0</v>
       </c>
       <c r="N63" s="4">
@@ -10559,7 +10571,7 @@
       <c r="F64" s="12">
         <v>7.5</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G64" s="16">
         <v>10</v>
       </c>
       <c r="N64" s="4">
@@ -10603,7 +10615,7 @@
       <c r="F65" s="12">
         <v>5</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G65" s="16">
         <v>2.5</v>
       </c>
       <c r="N65" s="4">
@@ -10644,7 +10656,7 @@
       <c r="F66" s="12">
         <v>5</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G66" s="16">
         <v>5</v>
       </c>
       <c r="N66" s="4">
@@ -10688,7 +10700,7 @@
       <c r="F67" s="12">
         <v>5</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G67" s="16">
         <v>5</v>
       </c>
       <c r="N67" s="4">
@@ -10732,7 +10744,7 @@
       <c r="F68" s="12">
         <v>7.5</v>
       </c>
-      <c r="G68" s="17"/>
+      <c r="G68" s="16"/>
       <c r="N68" s="4">
         <f t="shared" si="6"/>
         <v>46.666666666666664</v>
@@ -10777,7 +10789,7 @@
       <c r="E69" s="1">
         <v>2.5</v>
       </c>
-      <c r="G69" s="17"/>
+      <c r="G69" s="16"/>
       <c r="N69" s="4">
         <f t="shared" si="6"/>
         <v>35</v>
@@ -10825,7 +10837,7 @@
       <c r="F70" s="12">
         <v>10</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G70" s="16">
         <v>5</v>
       </c>
       <c r="N70" s="4">
@@ -10875,7 +10887,7 @@
       <c r="F71" s="12">
         <v>5</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G71" s="16">
         <v>5</v>
       </c>
       <c r="N71" s="4">
@@ -10919,7 +10931,7 @@
       <c r="F72" s="12">
         <v>7.5</v>
       </c>
-      <c r="G72" s="17"/>
+      <c r="G72" s="16"/>
       <c r="N72" s="4">
         <f t="shared" si="6"/>
         <v>33.333333333333336</v>
@@ -10952,7 +10964,7 @@
       <c r="A73" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G73" s="17"/>
+      <c r="G73" s="16"/>
       <c r="N73" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -10985,7 +10997,7 @@
       <c r="F74" s="12">
         <v>5</v>
       </c>
-      <c r="G74" s="17"/>
+      <c r="G74" s="16"/>
       <c r="N74" s="4">
         <f t="shared" si="6"/>
         <v>40</v>
@@ -11027,7 +11039,7 @@
       <c r="F75" s="12">
         <v>10</v>
       </c>
-      <c r="G75" s="17"/>
+      <c r="G75" s="16"/>
       <c r="N75" s="4">
         <f t="shared" si="6"/>
         <v>50</v>
@@ -11066,7 +11078,7 @@
       <c r="D76" s="1">
         <v>10</v>
       </c>
-      <c r="G76" s="17"/>
+      <c r="G76" s="16"/>
       <c r="N76" s="4">
         <f t="shared" si="6"/>
         <v>60</v>
@@ -11111,7 +11123,7 @@
       <c r="F77" s="12">
         <v>12.5</v>
       </c>
-      <c r="G77" s="17">
+      <c r="G77" s="16">
         <v>5</v>
       </c>
       <c r="N77" s="4">
@@ -11158,7 +11170,7 @@
       <c r="F78" s="12">
         <v>12.5</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G78" s="16">
         <v>7.5</v>
       </c>
       <c r="N78" s="4">
@@ -11208,7 +11220,7 @@
       <c r="F79" s="12">
         <v>10</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G79" s="16">
         <v>7.5</v>
       </c>
       <c r="N79" s="4">
@@ -11252,7 +11264,7 @@
       <c r="F80" s="12">
         <v>7.5</v>
       </c>
-      <c r="G80" s="17"/>
+      <c r="G80" s="16"/>
       <c r="N80" s="4">
         <f t="shared" si="6"/>
         <v>46.666666666666664</v>
@@ -11291,7 +11303,7 @@
       <c r="D81" s="1">
         <v>10</v>
       </c>
-      <c r="G81" s="17"/>
+      <c r="G81" s="16"/>
       <c r="N81" s="4">
         <f t="shared" si="6"/>
         <v>50</v>
@@ -11336,7 +11348,7 @@
       <c r="F82" s="12">
         <v>5</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G82" s="16">
         <v>5</v>
       </c>
       <c r="N82" s="4">
@@ -11377,7 +11389,7 @@
       <c r="F83" s="12">
         <v>2.5</v>
       </c>
-      <c r="G83" s="17"/>
+      <c r="G83" s="16"/>
       <c r="N83" s="4">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -11416,7 +11428,7 @@
       <c r="F84" s="12">
         <v>2.5</v>
       </c>
-      <c r="G84" s="17">
+      <c r="G84" s="16">
         <v>7.5</v>
       </c>
       <c r="N84" s="4">
@@ -11463,7 +11475,7 @@
       <c r="F85" s="12">
         <v>7.5</v>
       </c>
-      <c r="G85" s="17">
+      <c r="G85" s="16">
         <v>7.5</v>
       </c>
       <c r="N85" s="4">
@@ -11498,7 +11510,7 @@
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G86" s="17"/>
+      <c r="G86" s="16"/>
       <c r="N86" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -11531,7 +11543,7 @@
       <c r="E87" s="1">
         <v>5</v>
       </c>
-      <c r="G87" s="17"/>
+      <c r="G87" s="16"/>
       <c r="N87" s="4">
         <f t="shared" si="6"/>
         <v>40</v>
@@ -11573,7 +11585,7 @@
       <c r="F88" s="12">
         <v>2.5</v>
       </c>
-      <c r="G88" s="17">
+      <c r="G88" s="16">
         <v>12.5</v>
       </c>
       <c r="N88" s="4">
@@ -11608,7 +11620,7 @@
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G89" s="17"/>
+      <c r="G89" s="16"/>
       <c r="N89" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -11647,7 +11659,7 @@
       <c r="F90" s="12">
         <v>5</v>
       </c>
-      <c r="G90" s="17"/>
+      <c r="G90" s="16"/>
       <c r="N90" s="4">
         <f t="shared" si="6"/>
         <v>26.666666666666668</v>
@@ -11692,7 +11704,7 @@
       <c r="F91" s="12">
         <v>2.5</v>
       </c>
-      <c r="G91" s="17"/>
+      <c r="G91" s="16"/>
       <c r="N91" s="4">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -11728,7 +11740,7 @@
       <c r="F92" s="12">
         <v>5</v>
       </c>
-      <c r="G92" s="17"/>
+      <c r="G92" s="16"/>
       <c r="N92" s="4">
         <f t="shared" si="6"/>
         <v>50</v>
@@ -11773,7 +11785,7 @@
       <c r="E93" s="1">
         <v>7.5</v>
       </c>
-      <c r="G93" s="17">
+      <c r="G93" s="16">
         <v>7.5</v>
       </c>
       <c r="N93" s="4">
@@ -11808,7 +11820,7 @@
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="17">
+      <c r="G94" s="16">
         <v>10</v>
       </c>
       <c r="N94" s="4">
@@ -11855,7 +11867,7 @@
       <c r="F95" s="12">
         <v>2.5</v>
       </c>
-      <c r="G95" s="17">
+      <c r="G95" s="16">
         <v>10</v>
       </c>
       <c r="N95" s="4">
@@ -11893,7 +11905,7 @@
       <c r="F96" s="12">
         <v>5</v>
       </c>
-      <c r="G96" s="17"/>
+      <c r="G96" s="16"/>
       <c r="N96" s="4">
         <f t="shared" si="6"/>
         <v>40</v>
@@ -11932,7 +11944,7 @@
       <c r="F97" s="12">
         <v>7.5</v>
       </c>
-      <c r="G97" s="17"/>
+      <c r="G97" s="16"/>
       <c r="N97" s="4">
         <f t="shared" si="6"/>
         <v>33.333333333333336</v>
@@ -11971,7 +11983,7 @@
       <c r="F98" s="12">
         <v>5</v>
       </c>
-      <c r="G98" s="17">
+      <c r="G98" s="16">
         <v>2.5</v>
       </c>
       <c r="N98" s="4">
@@ -12018,7 +12030,7 @@
       <c r="F99" s="12">
         <v>5</v>
       </c>
-      <c r="G99" s="17">
+      <c r="G99" s="16">
         <v>2.5</v>
       </c>
       <c r="N99" s="4">
@@ -12065,7 +12077,7 @@
       <c r="F100" s="12">
         <v>7.5</v>
       </c>
-      <c r="G100" s="17">
+      <c r="G100" s="16">
         <v>10</v>
       </c>
       <c r="N100" s="4">
@@ -12109,7 +12121,7 @@
       <c r="F101" s="12">
         <v>5</v>
       </c>
-      <c r="G101" s="17"/>
+      <c r="G101" s="16"/>
       <c r="N101" s="4">
         <f t="shared" ref="N101:N103" si="12">IFERROR(AVERAGEIF(P101:AA101,"&lt;&gt;0"),"")</f>
         <v>26.666666666666668</v>
@@ -12157,7 +12169,7 @@
       <c r="F102" s="12">
         <v>7.5</v>
       </c>
-      <c r="G102" s="17">
+      <c r="G102" s="16">
         <v>10</v>
       </c>
       <c r="N102" s="4">
@@ -12192,7 +12204,7 @@
       <c r="A103" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G103" s="17"/>
+      <c r="G103" s="16"/>
       <c r="N103" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -12380,7 +12392,7 @@
       <c r="D3" s="1">
         <v>7.5</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>5</v>
       </c>
       <c r="N3" s="4">
@@ -12424,7 +12436,7 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="16"/>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -12473,7 +12485,7 @@
       <c r="F5" s="12">
         <v>7.5</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>10</v>
       </c>
       <c r="N5" s="4">
@@ -12515,7 +12527,7 @@
       <c r="E6" s="1">
         <v>12.5</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>0</v>
       </c>
       <c r="N6" s="4">
@@ -12551,7 +12563,7 @@
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="16"/>
       <c r="N7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12594,7 +12606,7 @@
       <c r="F8" s="12">
         <v>7.5</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>5</v>
       </c>
       <c r="N8" s="4">
@@ -12642,7 +12654,7 @@
       <c r="F9" s="12">
         <v>7.5</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>5</v>
       </c>
       <c r="N9" s="4">
@@ -12687,7 +12699,7 @@
       <c r="F10" s="12">
         <v>5</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>5</v>
       </c>
       <c r="N10" s="4">
@@ -12729,7 +12741,7 @@
       <c r="F11" s="12">
         <v>7.5</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="16"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -12771,7 +12783,7 @@
       <c r="F12" s="12">
         <v>2.5</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>5</v>
       </c>
       <c r="N12" s="4">
@@ -12818,7 +12830,7 @@
       <c r="F13" s="12">
         <v>2.5</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>7.5</v>
       </c>
       <c r="N13" s="4">
@@ -12865,7 +12877,7 @@
       <c r="F14" s="12">
         <v>7.5</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <v>7.5</v>
       </c>
       <c r="N14" s="4">
@@ -12912,7 +12924,7 @@
       <c r="F15" s="12">
         <v>5</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <v>5</v>
       </c>
       <c r="N15" s="4">
@@ -12956,7 +12968,7 @@
       <c r="F16" s="12">
         <v>5</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <v>2.5</v>
       </c>
       <c r="N16" s="4">
@@ -13003,7 +13015,7 @@
       <c r="E17" s="1">
         <v>2.5</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="16">
         <v>2.5</v>
       </c>
       <c r="N17" s="4">
@@ -13047,7 +13059,7 @@
       <c r="E18" s="1">
         <v>5</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <v>7.5</v>
       </c>
       <c r="N18" s="4">
@@ -13091,7 +13103,7 @@
       <c r="F19" s="12">
         <v>10</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <v>5</v>
       </c>
       <c r="N19" s="4">
@@ -13135,7 +13147,7 @@
       <c r="F20" s="12">
         <v>2.5</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="16">
         <v>5</v>
       </c>
       <c r="N20" s="4">
@@ -13182,7 +13194,7 @@
       <c r="F21" s="12">
         <v>5</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="16">
         <v>2.5</v>
       </c>
       <c r="N21" s="4">
@@ -13226,7 +13238,7 @@
       <c r="F22" s="12">
         <v>2.5</v>
       </c>
-      <c r="G22" s="17"/>
+      <c r="G22" s="16"/>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
@@ -13268,7 +13280,7 @@
       <c r="F23" s="12">
         <v>2.5</v>
       </c>
-      <c r="G23" s="17"/>
+      <c r="G23" s="16"/>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -13316,7 +13328,7 @@
       <c r="F24" s="12">
         <v>5</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="16">
         <v>10</v>
       </c>
       <c r="N24" s="4">
@@ -13357,7 +13369,7 @@
       <c r="E25" s="1">
         <v>7.5</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="16">
         <v>10</v>
       </c>
       <c r="N25" s="4">
@@ -13407,7 +13419,7 @@
       <c r="F26" s="12">
         <v>10</v>
       </c>
-      <c r="G26" s="17"/>
+      <c r="G26" s="16"/>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -13452,7 +13464,7 @@
       <c r="F27" s="12">
         <v>5</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="16">
         <v>2.5</v>
       </c>
       <c r="N27" s="4">
@@ -13499,7 +13511,7 @@
       <c r="F28" s="12">
         <v>7.5</v>
       </c>
-      <c r="G28" s="17"/>
+      <c r="G28" s="16"/>
       <c r="N28" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -13544,7 +13556,7 @@
       <c r="F29" s="12">
         <v>5</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="16">
         <v>5</v>
       </c>
       <c r="N29" s="4">
@@ -13585,7 +13597,7 @@
       <c r="F30" s="12">
         <v>2.5</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="16">
         <v>2.5</v>
       </c>
       <c r="N30" s="4">
@@ -13626,7 +13638,7 @@
       <c r="E31" s="1">
         <v>12.5</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="16">
         <v>2.5</v>
       </c>
       <c r="N31" s="4">
@@ -13664,7 +13676,7 @@
       <c r="D32" s="1">
         <v>2.5</v>
       </c>
-      <c r="G32" s="17"/>
+      <c r="G32" s="16"/>
       <c r="N32" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -13700,7 +13712,7 @@
       <c r="F33" s="12">
         <v>2.5</v>
       </c>
-      <c r="G33" s="17"/>
+      <c r="G33" s="16"/>
       <c r="N33" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -13730,7 +13742,7 @@
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="17"/>
+      <c r="G34" s="16"/>
       <c r="N34" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13772,7 +13784,7 @@
       <c r="F35" s="12">
         <v>2.5</v>
       </c>
-      <c r="G35" s="17"/>
+      <c r="G35" s="16"/>
       <c r="N35" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -13811,7 +13823,7 @@
       <c r="D36" s="1">
         <v>5</v>
       </c>
-      <c r="G36" s="17"/>
+      <c r="G36" s="16"/>
       <c r="N36" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -13859,7 +13871,7 @@
       <c r="F37" s="12">
         <v>7.5</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="16">
         <v>7.5</v>
       </c>
       <c r="N37" s="4">
@@ -13909,7 +13921,7 @@
       <c r="F38" s="12">
         <v>5</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="16">
         <v>5</v>
       </c>
       <c r="N38" s="4">
@@ -13956,7 +13968,7 @@
       <c r="F39" s="12">
         <v>5</v>
       </c>
-      <c r="G39" s="17"/>
+      <c r="G39" s="16"/>
       <c r="N39" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -14004,7 +14016,7 @@
       <c r="F40" s="12">
         <v>10</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="16">
         <v>7.5</v>
       </c>
       <c r="N40" s="4">
@@ -14039,7 +14051,7 @@
       <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="17"/>
+      <c r="G41" s="16"/>
       <c r="N41" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -14072,7 +14084,7 @@
       <c r="C42" s="1">
         <v>2.5</v>
       </c>
-      <c r="G42" s="17"/>
+      <c r="G42" s="16"/>
       <c r="N42" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -14117,7 +14129,7 @@
       <c r="F43" s="12">
         <v>7.5</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="16">
         <v>5</v>
       </c>
       <c r="N43" s="4">
@@ -14164,7 +14176,7 @@
       <c r="F44" s="12">
         <v>10</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="16">
         <v>12.5</v>
       </c>
       <c r="N44" s="4">
@@ -14205,7 +14217,7 @@
       <c r="E45" s="1">
         <v>7.5</v>
       </c>
-      <c r="G45" s="17"/>
+      <c r="G45" s="16"/>
       <c r="N45" s="4">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
@@ -14241,7 +14253,7 @@
       <c r="D46" s="1">
         <v>5</v>
       </c>
-      <c r="G46" s="17"/>
+      <c r="G46" s="16"/>
       <c r="N46" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -14283,7 +14295,7 @@
       <c r="F47" s="12">
         <v>5</v>
       </c>
-      <c r="G47" s="17"/>
+      <c r="G47" s="16"/>
       <c r="N47" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -14331,7 +14343,7 @@
       <c r="F48" s="12">
         <v>7.5</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="16">
         <v>0</v>
       </c>
       <c r="N48" s="4">
@@ -14366,7 +14378,7 @@
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="17"/>
+      <c r="G49" s="16"/>
       <c r="N49" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -14411,7 +14423,7 @@
       <c r="F50" s="12">
         <v>10</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="16">
         <v>7.5</v>
       </c>
       <c r="N50" s="4">
@@ -14446,7 +14458,7 @@
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G51" s="17"/>
+      <c r="G51" s="16"/>
       <c r="N51" s="4" t="str">
         <f t="shared" ref="N51:N100" si="6">IFERROR(AVERAGE(P51:AA51),"")</f>
         <v/>
@@ -14485,7 +14497,7 @@
       <c r="E52" s="1">
         <v>7.5</v>
       </c>
-      <c r="G52" s="17"/>
+      <c r="G52" s="16"/>
       <c r="N52" s="4">
         <f t="shared" si="6"/>
         <v>60</v>
@@ -14524,7 +14536,7 @@
       <c r="E53" s="1">
         <v>2.5</v>
       </c>
-      <c r="G53" s="17"/>
+      <c r="G53" s="16"/>
       <c r="N53" s="4">
         <f t="shared" si="6"/>
         <v>26.666666666666668</v>
@@ -14569,7 +14581,7 @@
       <c r="F54" s="12">
         <v>10</v>
       </c>
-      <c r="G54" s="17"/>
+      <c r="G54" s="16"/>
       <c r="N54" s="4">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -14611,7 +14623,7 @@
       <c r="F55" s="12">
         <v>2.5</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="16">
         <v>7.5</v>
       </c>
       <c r="N55" s="4">
@@ -14655,7 +14667,7 @@
       <c r="F56" s="12">
         <v>2.5</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="16">
         <v>7.5</v>
       </c>
       <c r="N56" s="4">
@@ -14693,7 +14705,7 @@
       <c r="D57" s="1">
         <v>2.5</v>
       </c>
-      <c r="G57" s="17"/>
+      <c r="G57" s="16"/>
       <c r="N57" s="4">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -14726,7 +14738,7 @@
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G58" s="17"/>
+      <c r="G58" s="16"/>
       <c r="N58" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -14765,7 +14777,7 @@
       <c r="F59" s="12">
         <v>10</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G59" s="16">
         <v>5</v>
       </c>
       <c r="N59" s="4">
@@ -14809,7 +14821,7 @@
       <c r="F60" s="12">
         <v>2.5</v>
       </c>
-      <c r="G60" s="17"/>
+      <c r="G60" s="16"/>
       <c r="N60" s="4">
         <f t="shared" si="6"/>
         <v>46.666666666666664</v>
@@ -14848,7 +14860,7 @@
       <c r="E61" s="1">
         <v>5</v>
       </c>
-      <c r="G61" s="17"/>
+      <c r="G61" s="16"/>
       <c r="N61" s="4">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -14896,7 +14908,7 @@
       <c r="F62" s="12">
         <v>7.5</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="16">
         <v>7.5</v>
       </c>
       <c r="N62" s="4">
@@ -14943,7 +14955,7 @@
       <c r="F63" s="12">
         <v>5</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G63" s="16">
         <v>0</v>
       </c>
       <c r="N63" s="4">
@@ -14993,7 +15005,7 @@
       <c r="F64" s="12">
         <v>5</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G64" s="16">
         <v>7.5</v>
       </c>
       <c r="N64" s="4">
@@ -15040,7 +15052,7 @@
       <c r="F65" s="12">
         <v>5</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G65" s="16">
         <v>5</v>
       </c>
       <c r="N65" s="4">
@@ -15084,7 +15096,7 @@
       <c r="F66" s="12">
         <v>5</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G66" s="16">
         <v>2.5</v>
       </c>
       <c r="N66" s="4">
@@ -15128,7 +15140,7 @@
       <c r="F67" s="12">
         <v>2.5</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G67" s="16">
         <v>5</v>
       </c>
       <c r="N67" s="4">
@@ -15172,7 +15184,7 @@
       <c r="F68" s="12">
         <v>7.5</v>
       </c>
-      <c r="G68" s="17"/>
+      <c r="G68" s="16"/>
       <c r="N68" s="4">
         <f t="shared" si="6"/>
         <v>53.333333333333336</v>
@@ -15217,7 +15229,7 @@
       <c r="E69" s="1">
         <v>10</v>
       </c>
-      <c r="G69" s="17"/>
+      <c r="G69" s="16"/>
       <c r="N69" s="4">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -15265,7 +15277,7 @@
       <c r="F70" s="12">
         <v>5</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G70" s="16">
         <v>7.5</v>
       </c>
       <c r="N70" s="4">
@@ -15312,7 +15324,7 @@
       <c r="F71" s="12">
         <v>5</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G71" s="16">
         <v>5</v>
       </c>
       <c r="N71" s="4">
@@ -15356,7 +15368,7 @@
       <c r="F72" s="12">
         <v>5</v>
       </c>
-      <c r="G72" s="17"/>
+      <c r="G72" s="16"/>
       <c r="N72" s="4">
         <f t="shared" si="6"/>
         <v>53.333333333333336</v>
@@ -15389,7 +15401,7 @@
       <c r="A73" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G73" s="17"/>
+      <c r="G73" s="16"/>
       <c r="N73" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -15425,7 +15437,7 @@
       <c r="F74" s="12">
         <v>2.5</v>
       </c>
-      <c r="G74" s="17"/>
+      <c r="G74" s="16"/>
       <c r="N74" s="4">
         <f t="shared" si="6"/>
         <v>40</v>
@@ -15467,7 +15479,7 @@
       <c r="F75" s="12">
         <v>10</v>
       </c>
-      <c r="G75" s="17"/>
+      <c r="G75" s="16"/>
       <c r="N75" s="4">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -15506,7 +15518,7 @@
       <c r="F76" s="12">
         <v>5</v>
       </c>
-      <c r="G76" s="17"/>
+      <c r="G76" s="16"/>
       <c r="N76" s="4">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -15551,7 +15563,7 @@
       <c r="F77" s="12">
         <v>5</v>
       </c>
-      <c r="G77" s="17">
+      <c r="G77" s="16">
         <v>5</v>
       </c>
       <c r="N77" s="4">
@@ -15598,7 +15610,7 @@
       <c r="F78" s="12">
         <v>12.5</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G78" s="16">
         <v>10</v>
       </c>
       <c r="N78" s="4">
@@ -15648,7 +15660,7 @@
       <c r="F79" s="12">
         <v>7.5</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G79" s="16">
         <v>10</v>
       </c>
       <c r="N79" s="4">
@@ -15689,7 +15701,7 @@
       <c r="F80" s="12">
         <v>2.5</v>
       </c>
-      <c r="G80" s="17"/>
+      <c r="G80" s="16"/>
       <c r="N80" s="4">
         <f t="shared" si="6"/>
         <v>33.333333333333336</v>
@@ -15722,7 +15734,7 @@
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G81" s="17"/>
+      <c r="G81" s="16"/>
       <c r="N81" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -15770,7 +15782,7 @@
       <c r="F82" s="12">
         <v>7.5</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G82" s="16">
         <v>5</v>
       </c>
       <c r="N82" s="4">
@@ -15814,7 +15826,7 @@
       <c r="F83" s="12">
         <v>5</v>
       </c>
-      <c r="G83" s="17"/>
+      <c r="G83" s="16"/>
       <c r="N83" s="4">
         <f t="shared" si="6"/>
         <v>46.666666666666664</v>
@@ -15856,7 +15868,7 @@
       <c r="E84" s="1">
         <v>10</v>
       </c>
-      <c r="G84" s="17">
+      <c r="G84" s="16">
         <v>7.5</v>
       </c>
       <c r="N84" s="4">
@@ -15903,7 +15915,7 @@
       <c r="F85" s="12">
         <v>5</v>
       </c>
-      <c r="G85" s="17">
+      <c r="G85" s="16">
         <v>2.5</v>
       </c>
       <c r="N85" s="4">
@@ -15938,7 +15950,7 @@
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G86" s="17"/>
+      <c r="G86" s="16"/>
       <c r="N86" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -15977,7 +15989,7 @@
       <c r="F87" s="12">
         <v>2.5</v>
       </c>
-      <c r="G87" s="17"/>
+      <c r="G87" s="16"/>
       <c r="N87" s="4">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -16022,7 +16034,7 @@
       <c r="F88" s="12">
         <v>5</v>
       </c>
-      <c r="G88" s="17">
+      <c r="G88" s="16">
         <v>7.5</v>
       </c>
       <c r="N88" s="4">
@@ -16057,7 +16069,7 @@
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G89" s="17"/>
+      <c r="G89" s="16"/>
       <c r="N89" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -16093,7 +16105,7 @@
       <c r="F90" s="12">
         <v>5</v>
       </c>
-      <c r="G90" s="17"/>
+      <c r="G90" s="16"/>
       <c r="N90" s="4">
         <f t="shared" si="6"/>
         <v>26.666666666666668</v>
@@ -16138,7 +16150,7 @@
       <c r="F91" s="12">
         <v>5</v>
       </c>
-      <c r="G91" s="17"/>
+      <c r="G91" s="16"/>
       <c r="N91" s="4">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -16174,7 +16186,7 @@
       <c r="F92" s="12">
         <v>2.5</v>
       </c>
-      <c r="G92" s="17"/>
+      <c r="G92" s="16"/>
       <c r="N92" s="4">
         <f t="shared" si="6"/>
         <v>40</v>
@@ -16219,7 +16231,7 @@
       <c r="E93" s="1">
         <v>10</v>
       </c>
-      <c r="G93" s="17">
+      <c r="G93" s="16">
         <v>7.5</v>
       </c>
       <c r="N93" s="4">
@@ -16254,7 +16266,7 @@
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="17">
+      <c r="G94" s="16">
         <v>10</v>
       </c>
       <c r="N94" s="4">
@@ -16298,7 +16310,7 @@
       <c r="E95" s="1">
         <v>12.5</v>
       </c>
-      <c r="G95" s="17">
+      <c r="G95" s="16">
         <v>5</v>
       </c>
       <c r="N95" s="4">
@@ -16342,7 +16354,7 @@
       <c r="E96" s="1">
         <v>10</v>
       </c>
-      <c r="G96" s="17"/>
+      <c r="G96" s="16"/>
       <c r="N96" s="4">
         <f t="shared" si="6"/>
         <v>40</v>
@@ -16384,7 +16396,7 @@
       <c r="F97" s="12">
         <v>10</v>
       </c>
-      <c r="G97" s="17"/>
+      <c r="G97" s="16"/>
       <c r="N97" s="4">
         <f t="shared" si="6"/>
         <v>60</v>
@@ -16426,7 +16438,7 @@
       <c r="F98" s="12">
         <v>2.5</v>
       </c>
-      <c r="G98" s="17">
+      <c r="G98" s="16">
         <v>5</v>
       </c>
       <c r="N98" s="4">
@@ -16473,7 +16485,7 @@
       <c r="F99" s="12">
         <v>5</v>
       </c>
-      <c r="G99" s="17">
+      <c r="G99" s="16">
         <v>2.5</v>
       </c>
       <c r="N99" s="4">
@@ -16520,7 +16532,7 @@
       <c r="F100" s="12">
         <v>5</v>
       </c>
-      <c r="G100" s="17">
+      <c r="G100" s="16">
         <v>7.5</v>
       </c>
       <c r="N100" s="4">
@@ -16564,7 +16576,7 @@
       <c r="F101" s="12">
         <v>2.5</v>
       </c>
-      <c r="G101" s="17"/>
+      <c r="G101" s="16"/>
       <c r="N101" s="4">
         <f t="shared" ref="N101:N103" si="12">IFERROR(AVERAGE(P101:AA101),"")</f>
         <v>20</v>
@@ -16612,7 +16624,7 @@
       <c r="F102" s="12">
         <v>7.5</v>
       </c>
-      <c r="G102" s="17">
+      <c r="G102" s="16">
         <v>10</v>
       </c>
       <c r="N102" s="4">
@@ -16647,7 +16659,7 @@
       <c r="A103" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G103" s="17"/>
+      <c r="G103" s="16"/>
       <c r="N103" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -16833,7 +16845,7 @@
       <c r="D3" s="1">
         <v>30</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>35</v>
       </c>
       <c r="N3" s="4">
@@ -16878,7 +16890,7 @@
       <c r="E4" s="1">
         <v>15</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="16"/>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
         <v>42.5</v>
@@ -16928,7 +16940,7 @@
       <c r="F5" s="12">
         <v>40</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>37.5</v>
       </c>
       <c r="N5" s="4">
@@ -16977,7 +16989,7 @@
       <c r="F6" s="12">
         <v>22.5</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>35</v>
       </c>
       <c r="N6" s="4">
@@ -17017,7 +17029,7 @@
       <c r="D7" s="1">
         <v>12.5</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="16"/>
       <c r="N7" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -17061,7 +17073,7 @@
       <c r="F8" s="12">
         <v>12.5</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>12.5</v>
       </c>
       <c r="N8" s="4">
@@ -17113,7 +17125,7 @@
       <c r="F9" s="12">
         <v>20</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>32.5</v>
       </c>
       <c r="N9" s="4">
@@ -17162,7 +17174,7 @@
       <c r="F10" s="12">
         <v>37.5</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>22.5</v>
       </c>
       <c r="N10" s="4">
@@ -17208,7 +17220,7 @@
       <c r="F11" s="12">
         <v>12.5</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="16"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
         <v>36.666666666666664</v>
@@ -17254,7 +17266,7 @@
       <c r="F12" s="12">
         <v>12.5</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>22.5</v>
       </c>
       <c r="N12" s="4">
@@ -17305,7 +17317,7 @@
       <c r="F13" s="12">
         <v>35</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>27.5</v>
       </c>
       <c r="N13" s="4">
@@ -17353,7 +17365,7 @@
       <c r="F14" s="12">
         <v>35</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <v>37.5</v>
       </c>
       <c r="N14" s="4">
@@ -17404,7 +17416,7 @@
       <c r="F15" s="12">
         <v>12.5</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <v>20</v>
       </c>
       <c r="N15" s="4">
@@ -17452,7 +17464,7 @@
       <c r="F16" s="12">
         <v>10</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <v>17.5</v>
       </c>
       <c r="N16" s="4">
@@ -17503,7 +17515,7 @@
       <c r="F17" s="12">
         <v>40</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="16">
         <v>30</v>
       </c>
       <c r="N17" s="4">
@@ -17551,7 +17563,7 @@
       <c r="F18" s="12">
         <v>42.5</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <v>30</v>
       </c>
       <c r="N18" s="4">
@@ -17596,7 +17608,7 @@
       <c r="F19" s="12">
         <v>30</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <v>15</v>
       </c>
       <c r="N19" s="4">
@@ -17641,7 +17653,7 @@
       <c r="F20" s="12">
         <v>37.5</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="16">
         <v>25</v>
       </c>
       <c r="N20" s="4">
@@ -17689,7 +17701,7 @@
       <c r="F21" s="12">
         <v>17.5</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="16">
         <v>37.5</v>
       </c>
       <c r="N21" s="4">
@@ -17734,7 +17746,7 @@
       <c r="F22" s="12">
         <v>20</v>
       </c>
-      <c r="G22" s="17"/>
+      <c r="G22" s="16"/>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
         <v>31.666666666666668</v>
@@ -17780,7 +17792,7 @@
       <c r="F23" s="12">
         <v>42.5</v>
       </c>
-      <c r="G23" s="17"/>
+      <c r="G23" s="16"/>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -17829,7 +17841,7 @@
       <c r="F24" s="12">
         <v>27.5</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="16">
         <v>32.5</v>
       </c>
       <c r="N24" s="4">
@@ -17871,7 +17883,7 @@
       <c r="E25" s="1">
         <v>40</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="16">
         <v>40</v>
       </c>
       <c r="N25" s="4">
@@ -17922,7 +17934,7 @@
       <c r="F26" s="12">
         <v>45</v>
       </c>
-      <c r="G26" s="17"/>
+      <c r="G26" s="16"/>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
         <v>86</v>
@@ -17968,7 +17980,7 @@
       <c r="F27" s="12">
         <v>30</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="16">
         <v>35</v>
       </c>
       <c r="N27" s="4">
@@ -18016,7 +18028,7 @@
       <c r="F28" s="12">
         <v>25</v>
       </c>
-      <c r="G28" s="17"/>
+      <c r="G28" s="16"/>
       <c r="N28" s="4">
         <f t="shared" si="0"/>
         <v>51.25</v>
@@ -18062,7 +18074,7 @@
       <c r="F29" s="12">
         <v>37.5</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="16">
         <v>32.5</v>
       </c>
       <c r="N29" s="4">
@@ -18104,7 +18116,7 @@
       <c r="F30" s="12">
         <v>20</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="16">
         <v>22.5</v>
       </c>
       <c r="N30" s="4">
@@ -18146,7 +18158,7 @@
       <c r="E31" s="1">
         <v>30</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="16">
         <v>37.5</v>
       </c>
       <c r="N31" s="4">
@@ -18185,7 +18197,7 @@
       <c r="D32" s="1">
         <v>17.5</v>
       </c>
-      <c r="G32" s="17"/>
+      <c r="G32" s="16"/>
       <c r="N32" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -18222,7 +18234,7 @@
       <c r="F33" s="12">
         <v>25</v>
       </c>
-      <c r="G33" s="17"/>
+      <c r="G33" s="16"/>
       <c r="N33" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -18256,7 +18268,7 @@
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="17"/>
+      <c r="G34" s="16"/>
       <c r="N34" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -18302,7 +18314,7 @@
       <c r="F35" s="12">
         <v>20</v>
       </c>
-      <c r="G35" s="17"/>
+      <c r="G35" s="16"/>
       <c r="N35" s="4">
         <f t="shared" si="0"/>
         <v>47.5</v>
@@ -18342,7 +18354,7 @@
       <c r="D36" s="1">
         <v>17.5</v>
       </c>
-      <c r="G36" s="17"/>
+      <c r="G36" s="16"/>
       <c r="N36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -18391,7 +18403,7 @@
       <c r="F37" s="12">
         <v>35</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="16">
         <v>30</v>
       </c>
       <c r="N37" s="4">
@@ -18442,7 +18454,7 @@
       <c r="F38" s="12">
         <v>35</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="16">
         <v>35</v>
       </c>
       <c r="N38" s="4">
@@ -18490,7 +18502,7 @@
       <c r="F39" s="12">
         <v>35</v>
       </c>
-      <c r="G39" s="17"/>
+      <c r="G39" s="16"/>
       <c r="N39" s="4">
         <f t="shared" si="0"/>
         <v>71.25</v>
@@ -18539,7 +18551,7 @@
       <c r="F40" s="12">
         <v>35</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="16">
         <v>35</v>
       </c>
       <c r="N40" s="4">
@@ -18575,7 +18587,7 @@
       <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="17"/>
+      <c r="G41" s="16"/>
       <c r="N41" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -18615,7 +18627,7 @@
       <c r="F42" s="12">
         <v>25</v>
       </c>
-      <c r="G42" s="17"/>
+      <c r="G42" s="16"/>
       <c r="N42" s="4">
         <f t="shared" si="0"/>
         <v>47.5</v>
@@ -18664,7 +18676,7 @@
       <c r="F43" s="12">
         <v>42.5</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="16">
         <v>30</v>
       </c>
       <c r="N43" s="4">
@@ -18712,7 +18724,7 @@
       <c r="F44" s="12">
         <v>45</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="16">
         <v>45</v>
       </c>
       <c r="N44" s="4">
@@ -18757,7 +18769,7 @@
       <c r="E45" s="1">
         <v>20</v>
       </c>
-      <c r="G45" s="17"/>
+      <c r="G45" s="16"/>
       <c r="N45" s="4">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
@@ -18797,7 +18809,7 @@
       <c r="E46" s="1">
         <v>25</v>
       </c>
-      <c r="G46" s="17"/>
+      <c r="G46" s="16"/>
       <c r="N46" s="4">
         <f t="shared" si="0"/>
         <v>37.5</v>
@@ -18840,7 +18852,7 @@
       <c r="F47" s="12">
         <v>40</v>
       </c>
-      <c r="G47" s="17"/>
+      <c r="G47" s="16"/>
       <c r="N47" s="4">
         <f t="shared" si="0"/>
         <v>78.333333333333329</v>
@@ -18889,7 +18901,7 @@
       <c r="F48" s="12">
         <v>30</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="16">
         <v>32.5</v>
       </c>
       <c r="N48" s="4">
@@ -18925,7 +18937,7 @@
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="17"/>
+      <c r="G49" s="16"/>
       <c r="N49" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -18974,7 +18986,7 @@
       <c r="F50" s="12">
         <v>35</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="16">
         <v>30</v>
       </c>
       <c r="N50" s="4">
@@ -19010,7 +19022,7 @@
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G51" s="17"/>
+      <c r="G51" s="16"/>
       <c r="N51" s="4" t="str">
         <f t="shared" ref="N51:N100" si="7">IFERROR(AVERAGE(P51:AA51),"")</f>
         <v/>
@@ -19059,7 +19071,7 @@
       <c r="F52" s="12">
         <v>15</v>
       </c>
-      <c r="G52" s="17"/>
+      <c r="G52" s="16"/>
       <c r="N52" s="4">
         <f t="shared" si="7"/>
         <v>29</v>
@@ -19102,7 +19114,7 @@
       <c r="E53" s="1">
         <v>12.5</v>
       </c>
-      <c r="G53" s="17"/>
+      <c r="G53" s="16"/>
       <c r="N53" s="4">
         <f t="shared" si="7"/>
         <v>41.666666666666664</v>
@@ -19148,7 +19160,7 @@
       <c r="F54" s="12">
         <v>25</v>
       </c>
-      <c r="G54" s="17"/>
+      <c r="G54" s="16"/>
       <c r="N54" s="4">
         <f t="shared" si="7"/>
         <v>53.75</v>
@@ -19191,7 +19203,7 @@
       <c r="F55" s="12">
         <v>40</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="16">
         <v>27.5</v>
       </c>
       <c r="N55" s="4">
@@ -19236,7 +19248,7 @@
       <c r="F56" s="12">
         <v>30</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="16">
         <v>32.5</v>
       </c>
       <c r="N56" s="4">
@@ -19275,7 +19287,7 @@
       <c r="D57" s="1">
         <v>27.5</v>
       </c>
-      <c r="G57" s="17"/>
+      <c r="G57" s="16"/>
       <c r="N57" s="4">
         <f t="shared" si="7"/>
         <v>55.000000000000007</v>
@@ -19309,7 +19321,7 @@
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G58" s="17"/>
+      <c r="G58" s="16"/>
       <c r="N58" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -19352,7 +19364,7 @@
       <c r="F59" s="12">
         <v>32.5</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G59" s="16">
         <v>35</v>
       </c>
       <c r="N59" s="4">
@@ -19397,7 +19409,7 @@
       <c r="F60" s="12">
         <v>27.5</v>
       </c>
-      <c r="G60" s="17"/>
+      <c r="G60" s="16"/>
       <c r="N60" s="4">
         <f t="shared" si="7"/>
         <v>50</v>
@@ -19440,7 +19452,7 @@
       <c r="F61" s="12">
         <v>27.5</v>
       </c>
-      <c r="G61" s="17"/>
+      <c r="G61" s="16"/>
       <c r="N61" s="4">
         <f t="shared" si="7"/>
         <v>51.666666666666664</v>
@@ -19489,7 +19501,7 @@
       <c r="F62" s="12">
         <v>45</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="16">
         <v>32.5</v>
       </c>
       <c r="N62" s="4">
@@ -19537,7 +19549,7 @@
       <c r="F63" s="12">
         <v>32.5</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G63" s="16">
         <v>30</v>
       </c>
       <c r="N63" s="4">
@@ -19588,7 +19600,7 @@
       <c r="F64" s="12">
         <v>32.5</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G64" s="16">
         <v>25</v>
       </c>
       <c r="N64" s="4">
@@ -19636,7 +19648,7 @@
       <c r="F65" s="12">
         <v>35</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G65" s="16">
         <v>27.5</v>
       </c>
       <c r="N65" s="4">
@@ -19681,7 +19693,7 @@
       <c r="F66" s="12">
         <v>32.5</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G66" s="16">
         <v>17.5</v>
       </c>
       <c r="N66" s="4">
@@ -19726,7 +19738,7 @@
       <c r="F67" s="12">
         <v>20</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G67" s="16">
         <v>20</v>
       </c>
       <c r="N67" s="4">
@@ -19771,7 +19783,7 @@
       <c r="F68" s="12">
         <v>45</v>
       </c>
-      <c r="G68" s="17"/>
+      <c r="G68" s="16"/>
       <c r="N68" s="4">
         <f t="shared" si="7"/>
         <v>68.333333333333329</v>
@@ -19817,7 +19829,7 @@
       <c r="E69" s="1">
         <v>40</v>
       </c>
-      <c r="G69" s="17"/>
+      <c r="G69" s="16"/>
       <c r="N69" s="4">
         <f t="shared" si="7"/>
         <v>75</v>
@@ -19866,7 +19878,7 @@
       <c r="F70" s="12">
         <v>45</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G70" s="16">
         <v>35</v>
       </c>
       <c r="N70" s="4">
@@ -19917,7 +19929,7 @@
       <c r="F71" s="12">
         <v>45</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G71" s="16">
         <v>37.5</v>
       </c>
       <c r="N71" s="4">
@@ -19962,7 +19974,7 @@
       <c r="F72" s="12">
         <v>37.5</v>
       </c>
-      <c r="G72" s="17"/>
+      <c r="G72" s="16"/>
       <c r="N72" s="4">
         <f t="shared" si="7"/>
         <v>75</v>
@@ -19996,7 +20008,7 @@
       <c r="A73" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G73" s="17"/>
+      <c r="G73" s="16"/>
       <c r="N73" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -20036,7 +20048,7 @@
       <c r="F74" s="12">
         <v>37.5</v>
       </c>
-      <c r="G74" s="17"/>
+      <c r="G74" s="16"/>
       <c r="N74" s="4">
         <f t="shared" si="7"/>
         <v>70</v>
@@ -20082,7 +20094,7 @@
       <c r="F75" s="12">
         <v>47.5</v>
       </c>
-      <c r="G75" s="17"/>
+      <c r="G75" s="16"/>
       <c r="N75" s="4">
         <f t="shared" si="7"/>
         <v>77.5</v>
@@ -20125,7 +20137,7 @@
       <c r="F76" s="12">
         <v>25</v>
       </c>
-      <c r="G76" s="17"/>
+      <c r="G76" s="16"/>
       <c r="N76" s="4">
         <f t="shared" si="7"/>
         <v>33.333333333333336</v>
@@ -20171,7 +20183,7 @@
       <c r="F77" s="12">
         <v>40</v>
       </c>
-      <c r="G77" s="17">
+      <c r="G77" s="16">
         <v>25</v>
       </c>
       <c r="N77" s="4">
@@ -20219,7 +20231,7 @@
       <c r="F78" s="12">
         <v>32.5</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G78" s="16">
         <v>22.5</v>
       </c>
       <c r="N78" s="4">
@@ -20270,7 +20282,7 @@
       <c r="F79" s="12">
         <v>45</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G79" s="16">
         <v>37.5</v>
       </c>
       <c r="N79" s="4">
@@ -20321,7 +20333,7 @@
       <c r="F80" s="12">
         <v>35</v>
       </c>
-      <c r="G80" s="17"/>
+      <c r="G80" s="16"/>
       <c r="N80" s="4">
         <f t="shared" si="7"/>
         <v>55</v>
@@ -20361,7 +20373,7 @@
       <c r="D81" s="1">
         <v>17.5</v>
       </c>
-      <c r="G81" s="17"/>
+      <c r="G81" s="16"/>
       <c r="N81" s="4">
         <f t="shared" si="7"/>
         <v>25</v>
@@ -20410,7 +20422,7 @@
       <c r="F82" s="12">
         <v>35</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G82" s="16">
         <v>30</v>
       </c>
       <c r="N82" s="4">
@@ -20455,7 +20467,7 @@
       <c r="F83" s="12">
         <v>27.5</v>
       </c>
-      <c r="G83" s="17"/>
+      <c r="G83" s="16"/>
       <c r="N83" s="4">
         <f t="shared" si="7"/>
         <v>55.000000000000007</v>
@@ -20501,7 +20513,7 @@
       <c r="F84" s="12">
         <v>37.5</v>
       </c>
-      <c r="G84" s="17">
+      <c r="G84" s="16">
         <v>35</v>
       </c>
       <c r="N84" s="4">
@@ -20552,7 +20564,7 @@
       <c r="F85" s="12">
         <v>32.5</v>
       </c>
-      <c r="G85" s="17">
+      <c r="G85" s="16">
         <v>35</v>
       </c>
       <c r="N85" s="4">
@@ -20588,7 +20600,7 @@
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G86" s="17"/>
+      <c r="G86" s="16"/>
       <c r="N86" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -20631,7 +20643,7 @@
       <c r="F87" s="12">
         <v>15</v>
       </c>
-      <c r="G87" s="17"/>
+      <c r="G87" s="16"/>
       <c r="N87" s="4">
         <f t="shared" si="7"/>
         <v>33.333333333333336</v>
@@ -20677,7 +20689,7 @@
       <c r="F88" s="12">
         <v>25</v>
       </c>
-      <c r="G88" s="17">
+      <c r="G88" s="16">
         <v>32.5</v>
       </c>
       <c r="N88" s="4">
@@ -20713,7 +20725,7 @@
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G89" s="17"/>
+      <c r="G89" s="16"/>
       <c r="N89" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -20756,7 +20768,7 @@
       <c r="F90" s="12">
         <v>22.5</v>
       </c>
-      <c r="G90" s="17"/>
+      <c r="G90" s="16"/>
       <c r="N90" s="4">
         <f t="shared" si="7"/>
         <v>30</v>
@@ -20802,7 +20814,7 @@
       <c r="F91" s="12">
         <v>20</v>
       </c>
-      <c r="G91" s="17"/>
+      <c r="G91" s="16"/>
       <c r="N91" s="4">
         <f t="shared" si="7"/>
         <v>40</v>
@@ -20842,7 +20854,7 @@
       <c r="F92" s="12">
         <v>37.5</v>
       </c>
-      <c r="G92" s="17"/>
+      <c r="G92" s="16"/>
       <c r="N92" s="4">
         <f t="shared" si="7"/>
         <v>80</v>
@@ -20888,7 +20900,7 @@
       <c r="E93" s="1">
         <v>45</v>
       </c>
-      <c r="G93" s="17">
+      <c r="G93" s="16">
         <v>45</v>
       </c>
       <c r="N93" s="4">
@@ -20924,7 +20936,7 @@
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="17">
+      <c r="G94" s="16">
         <v>25</v>
       </c>
       <c r="N94" s="4">
@@ -20975,7 +20987,7 @@
       <c r="F95" s="12">
         <v>35</v>
       </c>
-      <c r="G95" s="17">
+      <c r="G95" s="16">
         <v>37.5</v>
       </c>
       <c r="N95" s="4">
@@ -21023,7 +21035,7 @@
       <c r="F96" s="12">
         <v>32.5</v>
       </c>
-      <c r="G96" s="17"/>
+      <c r="G96" s="16"/>
       <c r="N96" s="4">
         <f t="shared" si="7"/>
         <v>57.5</v>
@@ -21066,7 +21078,7 @@
       <c r="F97" s="12">
         <v>30</v>
       </c>
-      <c r="G97" s="17"/>
+      <c r="G97" s="16"/>
       <c r="N97" s="4">
         <f t="shared" si="7"/>
         <v>48.333333333333336</v>
@@ -21109,7 +21121,7 @@
       <c r="F98" s="12">
         <v>30</v>
       </c>
-      <c r="G98" s="17">
+      <c r="G98" s="16">
         <v>40</v>
       </c>
       <c r="N98" s="4">
@@ -21160,7 +21172,7 @@
       <c r="F99" s="12">
         <v>47.5</v>
       </c>
-      <c r="G99" s="17">
+      <c r="G99" s="16">
         <v>37.5</v>
       </c>
       <c r="N99" s="4">
@@ -21208,7 +21220,7 @@
       <c r="F100" s="12">
         <v>37.5</v>
       </c>
-      <c r="G100" s="17">
+      <c r="G100" s="16">
         <v>27.5</v>
       </c>
       <c r="N100" s="4">
@@ -21253,7 +21265,7 @@
       <c r="F101" s="12">
         <v>15</v>
       </c>
-      <c r="G101" s="17"/>
+      <c r="G101" s="16"/>
       <c r="N101" s="4">
         <f t="shared" ref="N101:N103" si="14">IFERROR(AVERAGE(P101:AA101),"")</f>
         <v>28.333333333333332</v>
@@ -21302,7 +21314,7 @@
       <c r="F102" s="12">
         <v>47.5</v>
       </c>
-      <c r="G102" s="17">
+      <c r="G102" s="16">
         <v>32.5</v>
       </c>
       <c r="N102" s="4">
@@ -21338,7 +21350,7 @@
       <c r="A103" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G103" s="17"/>
+      <c r="G103" s="16"/>
       <c r="N103" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
